--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.7コード管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.7コード管理方式.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11414E03-E4CF-4450-8495-39AEDFC16024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="6810"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コード管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">コード管理方式!$A$1:$AI$40</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -273,39 +285,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでは、複数のDBサーバを使用しているが、データベースにメッセージを保存する場合は、</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>同期設定がされているならば、その1つを更新すればよいため。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コードIDのID体系については、開発標準ドキュメント内の【ID体系】を参照。</t>
     <rPh sb="16" eb="18">
       <t>カイハツ</t>
@@ -318,6 +297,16 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchのコード管理機能では、コードはデータベースのテーブルで管理する。</t>
+    <rPh sb="12" eb="16">
+      <t>カンリキノウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -325,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -541,7 +530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,24 +643,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -743,9 +714,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,12 +724,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -800,7 +774,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,9 +807,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,6 +859,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1043,11 +1051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI479"/>
+  <dimension ref="A1:AI475"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1065,43 +1073,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="46"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1110,43 +1118,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="55"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1155,39 +1163,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1250,7 +1258,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,225 +1468,97 @@
       </c>
     </row>
     <row r="32" spans="4:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="18"/>
-    </row>
-    <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="40"/>
-    </row>
-    <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="40"/>
-    </row>
-    <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="43"/>
-    </row>
-    <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="str">
+    </row>
+    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="str">
         <f>$D$9&amp;"4."</f>
         <v>7.7.1.4.</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="4" t="s">
+    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="15" t="str">
+    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.7.2.</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="15"/>
-      <c r="E42" s="33" t="s">
+    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="15"/>
+      <c r="E38" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="15"/>
+    </row>
     <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="15"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="15"/>
+    </row>
     <row r="59" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="26"/>
-    </row>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2091,10 +1971,6 @@
     <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.7コード管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.7コード管理方式.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11414E03-E4CF-4450-8495-39AEDFC16024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6920969-9F17-4CC9-A14D-6EB4CB6A67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="コード管理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.7.コード管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">コード管理方式!$A$1:$AI$40</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.7コード管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.7コード管理方式.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6920969-9F17-4CC9-A14D-6EB4CB6A67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="6810"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="コード管理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.7.コード管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">コード管理方式!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.7.コード管理方式'!$A$1:$AI$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -273,39 +285,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでは、複数のDBサーバを使用しているが、データベースにメッセージを保存する場合は、</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>同期設定がされているならば、その1つを更新すればよいため。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コードIDのID体系については、開発標準ドキュメント内の【ID体系】を参照。</t>
     <rPh sb="16" eb="18">
       <t>カイハツ</t>
@@ -318,6 +297,16 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchのコード管理機能では、コードはデータベースのテーブルで管理する。</t>
+    <rPh sb="12" eb="16">
+      <t>カンリキノウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -325,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -541,7 +530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,24 +643,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -743,9 +714,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,12 +724,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -800,7 +774,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,9 +807,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,6 +859,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1043,11 +1051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI479"/>
+  <dimension ref="A1:AI475"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1065,43 +1073,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="46"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1110,43 +1118,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="55"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1155,39 +1163,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1250,7 +1258,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,225 +1468,97 @@
       </c>
     </row>
     <row r="32" spans="4:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="18"/>
-    </row>
-    <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="40"/>
-    </row>
-    <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="40"/>
-    </row>
-    <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="43"/>
-    </row>
-    <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="str">
+    </row>
+    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="str">
         <f>$D$9&amp;"4."</f>
         <v>7.7.1.4.</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="4" t="s">
+    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="15" t="str">
+    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.7.2.</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="15"/>
-      <c r="E42" s="33" t="s">
+    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="15"/>
+      <c r="E38" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="15"/>
+    </row>
     <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="15"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="15"/>
+    </row>
     <row r="59" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="26"/>
-    </row>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2091,10 +1971,6 @@
     <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
